--- a/18/sdamgia/todo27685.xlsx
+++ b/18/sdamgia/todo27685.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ege_bk\18\sdamgia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416C16CF-895F-4BAE-BF75-1EF240F25CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A0F53-C296-47CB-811F-C07ED7869997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,39 +773,39 @@
         <v>114</v>
       </c>
       <c r="B14" s="2">
-        <f>MIN(B13,A14)+B2</f>
+        <f t="shared" ref="B14:B22" si="1">MIN(B13,A14)+B2</f>
         <v>183</v>
       </c>
       <c r="C14" s="2">
-        <f>MIN(C13,B14)+C2</f>
+        <f t="shared" ref="C14:C22" si="2">MIN(C13,B14)+C2</f>
         <v>238</v>
       </c>
       <c r="D14" s="2">
-        <f>MIN(D13,C14)+D2</f>
+        <f t="shared" ref="D14:D22" si="3">MIN(D13,C14)+D2</f>
         <v>267</v>
       </c>
       <c r="E14" s="2">
-        <f>MIN(E13,D14)+E2</f>
+        <f t="shared" ref="E14:E22" si="4">MIN(E13,D14)+E2</f>
         <v>310</v>
       </c>
       <c r="F14" s="2">
-        <f>MIN(F13,E14)+F2</f>
+        <f t="shared" ref="F14:F22" si="5">MIN(F13,E14)+F2</f>
         <v>351</v>
       </c>
       <c r="G14" s="2">
-        <f>MIN(G13,F14)+G2</f>
+        <f t="shared" ref="G14:G22" si="6">MIN(G13,F14)+G2</f>
         <v>424</v>
       </c>
       <c r="H14" s="2">
-        <f>MIN(H13,G14)+H2</f>
+        <f t="shared" ref="H14:H22" si="7">MIN(H13,G14)+H2</f>
         <v>433</v>
       </c>
       <c r="I14" s="2">
-        <f>MIN(I13,H14)+I2</f>
+        <f t="shared" ref="I14:I22" si="8">MIN(I13,H14)+I2</f>
         <v>448</v>
       </c>
       <c r="J14" s="2">
-        <f>MIN(J13,I14)+J2</f>
+        <f t="shared" ref="J14:J22" si="9">MIN(J13,I14)+J2</f>
         <v>514</v>
       </c>
       <c r="L14" t="s">
@@ -817,343 +817,343 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" ref="A15:A22" si="1">A14+A3</f>
+        <f t="shared" ref="A15:A22" si="10">A14+A3</f>
         <v>129</v>
       </c>
       <c r="B15" s="2">
-        <f>MIN(B14,A15)+B3</f>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="C15" s="2">
-        <f>MIN(C14,B15)+C3</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="D15" s="2">
-        <f>MIN(D14,C15)+D3</f>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="E15" s="2">
-        <f>MIN(E14,D15)+E3</f>
+        <f t="shared" si="4"/>
         <v>184</v>
       </c>
       <c r="F15" s="2">
-        <f>MIN(F14,E15)+F3</f>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
       <c r="G15" s="2">
-        <f>MIN(G14,F15)+G3</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="H15" s="2">
-        <f>MIN(H14,G15)+H3</f>
+        <f t="shared" si="7"/>
         <v>303</v>
       </c>
       <c r="I15" s="2">
-        <f>MIN(I14,H15)+I3</f>
+        <f t="shared" si="8"/>
         <v>320</v>
       </c>
       <c r="J15" s="2">
-        <f>MIN(J14,I15)+J3</f>
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
       <c r="L15" t="s">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="B16" s="2">
         <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-      <c r="B16" s="2">
-        <f>MIN(B15,A16)+B4</f>
         <v>216</v>
       </c>
       <c r="C16" s="2">
-        <f>MIN(C15,B16)+C4</f>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
       <c r="D16" s="2">
-        <f>MIN(D15,C16)+D4</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="E16" s="2">
-        <f>MIN(E15,D16)+E4</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="F16" s="2">
-        <f>MIN(F15,E16)+F4</f>
+        <f t="shared" si="5"/>
         <v>298</v>
       </c>
       <c r="G16" s="2">
-        <f>MIN(G15,F16)+G4</f>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="H16" s="2">
-        <f>MIN(H15,G16)+H4</f>
+        <f t="shared" si="7"/>
         <v>380</v>
       </c>
       <c r="I16" s="2">
-        <f>MIN(I15,H16)+I4</f>
+        <f t="shared" si="8"/>
         <v>388</v>
       </c>
       <c r="J16" s="2">
-        <f>MIN(J15,I16)+J4</f>
+        <f t="shared" si="9"/>
         <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f t="shared" si="10"/>
+        <v>213</v>
+      </c>
+      <c r="B17" s="2">
         <f t="shared" si="1"/>
-        <v>213</v>
-      </c>
-      <c r="B17" s="2">
-        <f>MIN(B16,A17)+B5</f>
         <v>298</v>
       </c>
       <c r="C17" s="2">
-        <f>MIN(C16,B17)+C5</f>
+        <f t="shared" si="2"/>
         <v>309</v>
       </c>
       <c r="D17" s="2">
-        <f>MIN(D16,C17)+D5</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="E17" s="2">
-        <f>MIN(E16,D17)+E5</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="F17" s="2">
-        <f>MIN(F16,E17)+F5</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="G17" s="2">
-        <f>MIN(G16,F17)+G5</f>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="H17" s="2">
-        <f>MIN(H16,G17)+H5</f>
+        <f t="shared" si="7"/>
         <v>433</v>
       </c>
       <c r="I17" s="2">
-        <f>MIN(I16,H17)+I5</f>
+        <f t="shared" si="8"/>
         <v>395</v>
       </c>
       <c r="J17" s="2">
-        <f>MIN(J16,I17)+J5</f>
+        <f t="shared" si="9"/>
         <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
+        <f t="shared" si="10"/>
+        <v>220</v>
+      </c>
+      <c r="B18" s="2">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="B18" s="2">
-        <f>MIN(B17,A18)+B6</f>
         <v>223</v>
       </c>
       <c r="C18" s="2">
-        <f>MIN(C17,B18)+C6</f>
+        <f t="shared" si="2"/>
         <v>303</v>
       </c>
       <c r="D18" s="2">
-        <f>MIN(D17,C18)+D6</f>
+        <f t="shared" si="3"/>
         <v>398</v>
       </c>
       <c r="E18" s="2">
-        <f>MIN(E17,D18)+E6</f>
+        <f t="shared" si="4"/>
         <v>353</v>
       </c>
       <c r="F18" s="2">
-        <f>MIN(F17,E18)+F6</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="G18" s="2">
-        <f>MIN(G17,F18)+G6</f>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="H18" s="2">
-        <f>MIN(H17,G18)+H6</f>
+        <f t="shared" si="7"/>
         <v>442</v>
       </c>
       <c r="I18" s="2">
-        <f>MIN(I17,H18)+I6</f>
+        <f t="shared" si="8"/>
         <v>443</v>
       </c>
       <c r="J18" s="2">
-        <f>MIN(J17,I18)+J6</f>
+        <f t="shared" si="9"/>
         <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f t="shared" si="10"/>
+        <v>229</v>
+      </c>
+      <c r="B19" s="2">
         <f t="shared" si="1"/>
-        <v>229</v>
-      </c>
-      <c r="B19" s="2">
-        <f>MIN(B18,A19)+B7</f>
         <v>296</v>
       </c>
       <c r="C19" s="2">
-        <f>MIN(C18,B19)+C7</f>
+        <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="D19" s="2">
-        <f>MIN(D18,C19)+D7</f>
+        <f t="shared" si="3"/>
         <v>434</v>
       </c>
       <c r="E19" s="2">
-        <f>MIN(E18,D19)+E7</f>
+        <f t="shared" si="4"/>
         <v>428</v>
       </c>
       <c r="F19" s="2">
-        <f>MIN(F18,E19)+F7</f>
+        <f t="shared" si="5"/>
         <v>395</v>
       </c>
       <c r="G19" s="2">
-        <f>MIN(G18,F19)+G7</f>
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
       <c r="H19" s="2">
-        <f>MIN(H18,G19)+H7</f>
+        <f t="shared" si="7"/>
         <v>486</v>
       </c>
       <c r="I19" s="2">
-        <f>MIN(I18,H19)+I7</f>
+        <f t="shared" si="8"/>
         <v>451</v>
       </c>
       <c r="J19" s="2">
-        <f>MIN(J18,I19)+J7</f>
+        <f t="shared" si="9"/>
         <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f t="shared" si="10"/>
+        <v>329</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" si="1"/>
-        <v>329</v>
-      </c>
-      <c r="B20" s="2">
-        <f>MIN(B19,A20)+B8</f>
         <v>326</v>
       </c>
       <c r="C20" s="2">
-        <f>MIN(C19,B20)+C8</f>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="D20" s="2">
-        <f>MIN(D19,C20)+D8</f>
+        <f t="shared" si="3"/>
         <v>418</v>
       </c>
       <c r="E20" s="2">
-        <f>MIN(E19,D20)+E8</f>
+        <f t="shared" si="4"/>
         <v>423</v>
       </c>
       <c r="F20" s="2">
-        <f>MIN(F19,E20)+F8</f>
+        <f t="shared" si="5"/>
         <v>491</v>
       </c>
       <c r="G20" s="2">
-        <f>MIN(G19,F20)+G8</f>
+        <f t="shared" si="6"/>
         <v>507</v>
       </c>
       <c r="H20" s="2">
-        <f>MIN(H19,G20)+H8</f>
+        <f t="shared" si="7"/>
         <v>518</v>
       </c>
       <c r="I20" s="2">
-        <f>MIN(I19,H20)+I8</f>
+        <f t="shared" si="8"/>
         <v>480</v>
       </c>
       <c r="J20" s="2">
-        <f>MIN(J19,I20)+J8</f>
+        <f t="shared" si="9"/>
         <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f t="shared" si="10"/>
+        <v>374</v>
+      </c>
+      <c r="B21" s="2">
         <f t="shared" si="1"/>
-        <v>374</v>
-      </c>
-      <c r="B21" s="2">
-        <f>MIN(B20,A21)+B9</f>
         <v>389</v>
       </c>
       <c r="C21" s="2">
-        <f>MIN(C20,B21)+C9</f>
+        <f t="shared" si="2"/>
         <v>368</v>
       </c>
       <c r="D21" s="2">
-        <f>MIN(D20,C21)+D9</f>
+        <f t="shared" si="3"/>
         <v>459</v>
       </c>
       <c r="E21" s="2">
-        <f>MIN(E20,D21)+E9</f>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
       <c r="F21" s="2">
-        <f>MIN(F20,E21)+F9</f>
+        <f t="shared" si="5"/>
         <v>505</v>
       </c>
       <c r="G21" s="2">
-        <f>MIN(G20,F21)+G9</f>
+        <f t="shared" si="6"/>
         <v>569</v>
       </c>
       <c r="H21" s="2">
-        <f>MIN(H20,G21)+H9</f>
+        <f t="shared" si="7"/>
         <v>601</v>
       </c>
       <c r="I21" s="2">
-        <f>MIN(I20,H21)+I9</f>
+        <f t="shared" si="8"/>
         <v>489</v>
       </c>
       <c r="J21" s="2">
-        <f>MIN(J20,I21)+J9</f>
+        <f t="shared" si="9"/>
         <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
+        <f t="shared" si="10"/>
+        <v>416</v>
+      </c>
+      <c r="B22" s="2">
         <f t="shared" si="1"/>
-        <v>416</v>
-      </c>
-      <c r="B22" s="2">
-        <f>MIN(B21,A22)+B10</f>
         <v>400</v>
       </c>
       <c r="C22" s="2">
-        <f>MIN(C21,B22)+C10</f>
+        <f t="shared" si="2"/>
         <v>456</v>
       </c>
       <c r="D22" s="2">
-        <f>MIN(D21,C22)+D10</f>
+        <f t="shared" si="3"/>
         <v>511</v>
       </c>
       <c r="E22" s="2">
-        <f>MIN(E21,D22)+E10</f>
+        <f t="shared" si="4"/>
         <v>510</v>
       </c>
       <c r="F22" s="2">
-        <f>MIN(F21,E22)+F10</f>
+        <f t="shared" si="5"/>
         <v>506</v>
       </c>
       <c r="G22" s="2">
-        <f>MIN(G21,F22)+G10</f>
+        <f t="shared" si="6"/>
         <v>588</v>
       </c>
       <c r="H22" s="2">
-        <f>MIN(H21,G22)+H10</f>
+        <f t="shared" si="7"/>
         <v>604</v>
       </c>
       <c r="I22" s="2">
-        <f>MIN(I21,H22)+I10</f>
+        <f t="shared" si="8"/>
         <v>497</v>
       </c>
       <c r="J22" s="2">
-        <f>MIN(J21,I22)+J10</f>
+        <f t="shared" si="9"/>
         <v>529</v>
       </c>
     </row>
